--- a/Кампания.xlsx
+++ b/Кампания.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usеr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usеr\source\repos\DungeonsAndGPTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E11666E-346B-4C2F-A906-209A96F4403C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A47E9A9-C1E8-4DDF-82C8-C69806FE3B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{2157F66B-6B78-45F2-A854-EF263FAA889B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{2157F66B-6B78-45F2-A854-EF263FAA889B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
   <si>
     <t>Этап</t>
   </si>
@@ -1239,6 +1239,123 @@
 В этот момент Мудрецы Звезд подняли свои посохи вверх, создавая защитный барьер вокруг Осириса. Вихрь световой энергии, который он вызвал, стал контролируемым и начал вращаться вокруг него, словно звездные орбиты, создавая защитный щит.
 "Осирис, тебе предстоит пройти через испытания Звездного Резонанса, чтобы раскрыть истинный потенциал своей магии и спасти Эльдорию от тьмы. С этого момента ты несешь бремя не только своей судьбы, но и судьбы всего мира," объявил старший из Мудрецов Звезд.
 Игроку предстояло взять в руки свой Звездный посох, облачиться в Драконью чешую и взглянуть на светящийся вихрь световой энергии. Следы Звезд на его драконьей чешуе мерцали, свидетельствуя о его соединении с звездной энергией. Теперь, с магией и знаниями, полученными от Мудрецов Звезд, Осирис был готов к финальной битве, которая должна была решить судьбу Эльдории.</t>
+  </si>
+  <si>
+    <t>Вот вся информация о мире, персонаже, его навыках и предметах: *все дб*. В данной ситуации игрок выбрал "Произвести Звездный Взрыв, вызвав световой вихрь в Звездных Сферах.". Опиши, как финальный босс прервал это действие и начни сражение с ним.
+Можешь описать босса и его действия, однако действовать за игрока не надо. У игрока должно быть время ответить на любые действия босса.</t>
+  </si>
+  <si>
+    <t>Сияющая Астральная Платформа наполнилась светом звезд, когда Осирис поднял свой Звездный посох, готовясь к могущественному Звездному Взрыву. Звезды вокруг него начали колебаться, создавая вихрь световой энергии. Осирис сфокусировался, готовясь выпустить этот мощный магический удар.
+Внезапно, из темного портала возник фигура, высокая и величественная. Это был финальный босс - Теневой Хранитель, владыка Тени Забытых Богов. Его темные доспехи сверкали мистическим светом, а его глаза излучали ауру могущества.
+Теневой Хранитель поднял руку, прерывая Звездный Взрыв Осириса своим магическим щитом. Световой вихрь замер, и затем исчез в темной ауре вокруг босса. Хранитель произнес таинственные слова, вызывая волну тьмы, которая окутала Осириса.
+"Ты, драконид, слишком дерзок, пытаясь использовать звездную энергию против меня," грозно произнес Теневой Хранитель. "Теперь ты станешь свидетелем истинной мощи тьмы."
+Сражение началось. Теневой Хранитель с легкостью избегал атак Осириса, создавая магические барьеры и вызывая теневых слуг, чтобы помешать его действиям. Он использовал свою Чарующую Тьму, чтобы ослепить Осириса, и активировал временные ловушки, чтобы замедлить его движения.
+Осирис, обуреваемый тьмой, осознал, что ему нужно пристально изучить тактику босса и использовать свои навыки мудро. Теневой Хранитель был могучим противником, и каждый шаг игрока требовал внимательного обдумывания.
+В это время, внутри Осириса, Звездный Резонанс начал проявляться, предоставляя ему новые способности и возможности. Осирису предстояло разгадать тайны этого боя, чтобы использовать свою уникальную связь с звездами и драконьей силой для победы.</t>
+  </si>
+  <si>
+    <t>BattleLog</t>
+  </si>
+  <si>
+    <t>{
+  "BattleLog": {
+    "Enemies": [
+      {
+        "Name": "Теневой Хранитель",
+        "State": "Живой",
+        "Skills": [
+          "Магический Щит",
+          "Чарующая Тьма",
+          "Вызов Теневых Слуг",
+          "Активация Ловушек"
+        ],
+        "PossibleLoot": "Мистический Артефакт Тьмы",
+        "PerformedActions": []
+      }
+    ],
+    "PlayerActions": [],
+    "MainEvents": [
+      "Осирис готовится к Звездному Взрыву",
+      "Теневой Хранитель прерывает атаку магическим щитом",
+      "Хранитель вызывает тьму, окутывающую Осириса",
+      "Начало сражения с Теневым Хранителем"
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>Вот красочное описание начала сцены боя: *предыдущий output gpt*
+На основании этого верни json в следующем формате:
+```json
+{
+  "BattleLog":{
+    "Enemies":[
+      "Name":,
+      "State",
+      "Skills",
+      "PossibleLoot",
+      "PerformedActions"
+    ],
+    "PlayerActions":[],
+    "MainEvents":[]
+  }
+}
+```
+где в массиве Enemies записаны все враги игрока (самого игрока в этот список вносить не нужно, как и его союзников), в PlayerActions предпринятые игроком за время боя действия, а в MainEvents очень кратко пересказаны общие события сражения.</t>
+  </si>
+  <si>
+    <t>Вот описание мира, персонажа и его навыков, а также предыдущий лог боя:
+*SI, CS, CCS, WAC, BL* На основании этого предложи 3 новых варианта действий персонажа Осирис (они не должны повторять уже существующие, а так же все они должны быть направлены на атаку врагов, покидать локацию и бой нельзя) и выдай их в следующем виде:
+```json
+{
+  "PossibleActions":[
+    "",
+    "",
+    ""
+  ]
+}
+```</t>
+  </si>
+  <si>
+    <t>{
+  "PossibleActions": [
+    "Применить Звездный Резонанс для создания магического барьера, защищающего от магических атак Теневого Хранителя.",
+    "Использовать Цветущее Прозрение, чтобы обнаружить уязвимости в магическом облике Теневого Хранителя и атаковать его слабые места.",
+    "Активировать Хрономантический Переход для быстрого перемещения вокруг Теневого Хранителя и избежания его ловушек, затем совершить магическую атаку."
+  ]
+}</t>
+  </si>
+  <si>
+    <t>Вот вся информация о мире, персонаже, его навыках: *БД ShortInfo, БД CharacterSkills - CharacterSkills.BeautifulDescription, CurrentCharacterState.
+В данной ситуации игрок хочет успешно совершил следующее действие: Активировать Хрономантический Переход для быстрого перемещения вокруг Теневого Хранителя и избежания его ловушек, затем совершить магическую атаку. Красочно, но немногословно (в один абзац), опиши, как это произошло. Учти, что описать нужно только предпринятое игроком действие и его последствия, додумывать дополнительные действия за игрока не нужно</t>
+  </si>
+  <si>
+    <t>Осирис, стоя на Сияющей Астральной Платформе, быстро активировал свой Хрономантический Переход, окружив себя мантией времени. В ультрабыстром перемещении он избежал ловушек, расставленных Теневым Хранителем, создавая вокруг себя иллюзию мельтешащих теней. Позиционируясь ловко вокруг врага, Осирис собрал звездную энергию в ладонях, приготавливаясь к магической атаке.
+Тем временем Теневой Хранитель, реагируя на неожиданный маневр Осириса, активировал свой Магический Щит, пытаясь устоять перед надвигающейся звездной энергией. Однако, не успев закончить защитное заклинание, он был вынужден отменить его, чтобы ответить на молниеносную атаку.
+Сияние звезд слилось с драконьей магией в руках Осириса, когда он выпустил мощный Звездный Резонанс. Вихрь световой энергии обрушился на Теневого Хранителя, пробиваясь сквозь его защиту. Оглушенный враг оказался в беззащитном положении, и блеск драконьего взгляда Осириса пронзил тьму, наполняя его новой уверенностью в борьбе против темных сил Эльдории.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вот текущая история боя, А вот фрагмент, на основании которого его нужно дополнить (верни только изменения в изначальной истории) (учти, что в PerformedActions нужно записывать только действия врагов, действия игрока записываются в PlayerActions):  </t>
+  </si>
+  <si>
+    <t>"PerformedActions": [
+    "Теневой Хранитель активирует свой Магический Щит, но отменяет его под давлением атаки Осириса",
+    "Осирис использует Звездный Резонанс против Теневого Хранителя"
+]
+"PlayerActions": [
+    "Осирис активирует Хрономантический Переход",
+    "Осирис готовит Звездный Резонанс"
+]
+"MainEvents": [
+    "Осирис готовится к Звездному Взрыву",
+    "Теневой Хранитель прерывает атаку магическим щитом",
+    "Хранитель вызывает тьму, окутывающую Осириса",
+    "Начало сражения с Теневым Хранителем",
+    "Осирис использует Хрономантический Переход, избегая ловушек",
+    "Теневой Хранитель отменяет Магический Щит под давлением атаки Осириса",
+    "Осирис готовит Звездный Резонанс",
+    "Осирис выпускает Звездный Резонанс, пробиваясь сквозь защиту Теневого Хранителя"
+]</t>
   </si>
 </sst>
 </file>
@@ -1594,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9746B0B3-BD14-45AF-A248-190EC1FFD653}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,9 +1723,10 @@
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="4" max="7" width="30.7109375" customWidth="1"/>
     <col min="10" max="10" width="46.42578125" customWidth="1"/>
+    <col min="11" max="11" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1640,10 +1758,13 @@
         <v>33</v>
       </c>
       <c r="K1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1662,11 +1783,11 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1680,11 +1801,11 @@
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="405" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="405" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A29" si="0">A3+1</f>
         <v>3</v>
@@ -1704,11 +1825,11 @@
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1719,11 +1840,11 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1740,11 +1861,11 @@
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1764,11 +1885,11 @@
       <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1785,11 +1906,11 @@
       <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1809,11 +1930,11 @@
       <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1836,11 +1957,11 @@
       <c r="J10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1877,11 +1998,11 @@
       <c r="J11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1913,11 +2034,11 @@
       <c r="J12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1940,11 +2061,11 @@
       <c r="J13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1967,11 +2088,11 @@
       <c r="J14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2004,11 +2125,11 @@
       <c r="J15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2031,11 +2152,11 @@
       <c r="J16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2071,7 +2192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2102,7 +2223,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2136,7 +2257,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2167,7 +2288,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2202,56 +2323,176 @@
       <c r="J21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K22" t="s">
+      <c r="D22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <f>F22</f>
+        <v>Когда Осирис обратился к Мудрецам Звезд за знаниями о древних тайнах в Астральных Просторах, внезапно воздух наполнился таинственной аурой, а вокруг начал формироваться вихрь световой энергии. Мудрецы Звезд, стоявшие вокруг него, подняли руки в знак благословения, и звезды на их одеждах засветились ярче.
+Один из Мудрецов Звезд произнес: "Осирис, великий Звездный маг, ты достиг высших сфер знаний, но судьба Эльдории на волоске. Темные силы уже сгущаются вокруг нас, и лишь твоя магия может предотвратить их темное пробуждение."
+В этот момент Мудрецы Звезд подняли свои посохи вверх, создавая защитный барьер вокруг Осириса. Вихрь световой энергии, который он вызвал, стал контролируемым и начал вращаться вокруг него, словно звездные орбиты, создавая защитный щит.
+"Осирис, тебе предстоит пройти через испытания Звездного Резонанса, чтобы раскрыть истинный потенциал своей магии и спасти Эльдорию от тьмы. С этого момента ты несешь бремя не только своей судьбы, но и судьбы всего мира," объявил старший из Мудрецов Звезд.
+Игроку предстояло взять в руки свой Звездный посох, облачиться в Драконью чешую и взглянуть на светящийся вихрь световой энергии. Следы Звезд на его драконьей чешуе мерцали, свидетельствуя о его соединении с звездной энергией. Теперь, с магией и знаниями, полученными от Мудрецов Звезд, Осирис был готов к финальной битве, которая должна была решить судьбу Эльдории.</v>
+      </c>
+      <c r="D25" t="str">
+        <f>F24</f>
+        <v>{
+  "PossibleActions": [
+    "Применить Звездный Резонанс для создания магического барьера, защищающего от магических атак Теневого Хранителя.",
+    "Использовать Цветущее Прозрение, чтобы обнаружить уязвимости в магическом облике Теневого Хранителя и атаковать его слабые места.",
+    "Активировать Хрономантический Переход для быстрого перемещения вокруг Теневого Хранителя и избежания его ловушек, затем совершить магическую атаку."
+  ]
+}</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2267,7 +2508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286B1339-2F31-4E8C-B0A6-A8A3299A8401}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/Кампания.xlsx
+++ b/Кампания.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usеr\source\repos\DungeonsAndGPTs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\source\repos\DungeonsAndGPTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A47E9A9-C1E8-4DDF-82C8-C69806FE3B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4171B612-DB64-4332-AD6F-F0543625E126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{2157F66B-6B78-45F2-A854-EF263FAA889B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2157F66B-6B78-45F2-A854-EF263FAA889B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="114">
   <si>
     <t>Этап</t>
   </si>
@@ -1356,6 +1356,503 @@
     "Осирис готовит Звездный Резонанс",
     "Осирис выпускает Звездный Резонанс, пробиваясь сквозь защиту Теневого Хранителя"
 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "BattleLog": {
+      "Enemies": [
+        {
+          "Name": "Теневой Хранитель",
+          "State": "Живой",
+          "Skills": [
+            "Магический Щит",
+            "Чарующая Тьма",
+            "Вызов Теневых Слуг",
+            "Активация Ловушек"
+          ],
+          "PossibleLoot": "Мистический Артефакт Тьмы",
+          "PerformedActions": [
+            "Теневой Хранитель активирует свой Магический Щит, но отменяет его под давлением атаки Осириса",
+            "Осирис использует Звездный Резонанс против Теневого Хранителя"
+        ]
+        }
+      ],
+      "PlayerActions": [
+        "Осирис активирует Хрономантический Переход",
+        "Осирис готовит Звездный Резонанс"
+    ],
+      "MainEvents": [
+        "Осирис готовится к Звездному Взрыву",
+        "Теневой Хранитель прерывает атаку магическим щитом",
+        "Хранитель вызывает тьму, окутывающую Осириса",
+        "Начало сражения с Теневым Хранителем",
+        "Осирис использует Хрономантический Переход, избегая ловушек",
+        "Теневой Хранитель отменяет Магический Щит под давлением атаки Осириса",
+        "Осирис готовит Звездный Резонанс",
+        "Осирис выпускает Звездный Резонанс, пробиваясь сквозь защиту Теневого Хранителя"
+    ]
+    }
+  }
+  </t>
+  </si>
+  <si>
+    <t>Теневой Хранитель, оставаясь живым, вновь обрушивает магический щит вокруг себя, но Осирис, несмотря на сопротивление темных сил, продолжает наносить удары. Сила Звездного Резонанса, вызванного драконьей сущностью Осириса, проникает сквозь защиту Хранителя, создавая магический барьер, который дрожит под воздействием звездной энергии. В ответ на вызов Чарующей Тьмы Теневой Хранитель погружает Осириса в мрак, окутывая его теневыми завитками. Однако, благодаря острому Цветущему Прозрению, драконид обнаруживает слабые места в облике врага и метко направляет свои атаки.
+Хранитель, взывая к древней магии, призывает Теневых Слуг, которые эффектно появляются из тьмы, готовые служить своему мастеру. Одновременно он активирует Ловушки, стреляющие из темных уголков, но Осирис, используя Хрономантический Переход, избегает хитроумных ловушек, маневрируя по битвенному полю. Под ритмичные взрывы Звездного Резонанса, темные силы пытаются устоять перед вихрем звездной энергии, но драконид, освоивший космическую симфонию, продолжает раскрывать новые возможности в борьбе против Теневого Хранителя.</t>
+  </si>
+  <si>
+    <t>Вот описание мира, персонажа и последних произошедших действий и боя до этого момента:
+```
+{
+    "World": {
+      "Name": "Эльдория",
+      "Features": "Города на облаках, Школа Звездного Магии, Леса Вечного Сумрака, Долина Взрывающихся Цветов, Глубины Сквозь Время, Тени Забытых Богов"
+    },
+    "Character": {
+      "Name": "Осирис",
+      "Class": "Звездный маг",
+      "Age": "18",
+      "Race": "Драконид",
+      "Sex": "Мужской",
+      "ShortBackstory": "Путешествует по миру в поисках божественного просветления."
+    }
+}
+{
+  "CurrentCharacterState":{
+    "MainPreviousEvents":[
+    "Осирис прибыл в Эльсарию и приветствован в Школе Звездного Магии.",
+    "Директор Ксандра раскрывает призвание Осириса и предупреждает о темном пробуждении.",
+    "Задача - отправиться в Леса Вечного Сумрака и раскрыть тайны древней силы.",
+    "Ксандра передает Книгу Забытых Заклинаний и поддерживает Осириса в его миссии.",
+    "Осирис приобщается к звездной магии, раскрывая тайны влияния её на драконью природу.",
+    "Осирис, поглубже исследуя Звездный Резонанс, слил звездную энергию с драконьей магией, раскрывая новые возможности в битве.",
+    "Осирис освоил Звездный Резонанс, погружаясь в космическую симфонию и обретая магическую ясность.",
+    "Осирис, стоя в Астральных Просторах, вызвал мощный Звездный Взрыв, поглощая звездную энергию.",
+    "Энергия звезд преобразовала его взгляд и наполнила его новой уверенностью.",
+    "Осирис осознал свою способность контролировать звездную магию во всей её величии.",
+    "Его драконья сущность слилась с невероятной энергией звезд, открыв новые возможности в борьбе против темных сил Эльдории."
+    ],
+    "CurrentPlayerLocation": "Сияющая Астральная Платформа",      
+      "PossibleActions": [
+        "Применить Звездный Резонанс для создания магического барьера, защищающего от магических атак Теневого Хранителя.",
+        "Использовать Цветущее Прозрение, чтобы обнаружить уязвимости в магическом облике Теневого Хранителя и атаковать его слабые места.",
+        "Активировать Хрономантический Переход для быстрого перемещения вокруг Теневого Хранителя и избежания его ловушек, затем совершить магическую атаку."
+      ]          
+  }
+}
+{
+    "BattleLog": {
+      "Enemies": [
+        {
+          "Name": "Теневой Хранитель",
+          "State": "Живой",
+          "Skills": [
+            "Магический Щит",
+            "Чарующая Тьма",
+            "Вызов Теневых Слуг",
+            "Активация Ловушек"
+          ],
+          "PossibleLoot": "Мистический Артефакт Тьмы",
+          "PerformedActions": [
+            "Теневой Хранитель активирует свой Магический Щит, но отменяет его под давлением атаки Осириса",
+            "Осирис использует Звездный Резонанс против Теневого Хранителя"
+        ]
+        }
+      ],
+      "PlayerActions": [
+        "Осирис активирует Хрономантический Переход",
+        "Осирис готовит Звездный Резонанс"
+    ],
+      "MainEvents": [
+        "Осирис готовится к Звездному Взрыву",
+        "Теневой Хранитель прерывает атаку магическим щитом",
+        "Хранитель вызывает тьму, окутывающую Осириса",
+        "Начало сражения с Теневым Хранителем",
+        "Осирис использует Хрономантический Переход, избегая ловушек",
+        "Теневой Хранитель отменяет Магический Щит под давлением атаки Осириса",
+        "Осирис готовит Звездный Резонанс",
+        "Осирис выпускает Звездный Резонанс, пробиваясь сквозь защиту Теневого Хранителя"
+    ]
+    }
+}
+```
+Представь, что эти действия разворачиваются в игре по ходам, в таком случае, кратко (в один абзац), но красочно опиши ходы всех противников (то есть существ из массива Enemies) (ход Осириса делать не стоит, также не указывай в своём описании, что действия происходят по ходам, твоё описание должно быть цельным фрагментом, не поделённым на пункты)
+Опиши только новые действия, заново пересказывать старые не нужно</t>
+  </si>
+  <si>
+    <t>{
+    "BattleLog": {
+      "Enemies": [
+        {
+          "Name": "Теневой Хранитель",
+          "State": "Живой",
+          "Skills": [
+            "Магический Щит",
+            "Чарующая Тьма",
+            "Вызов Теневых Слуг",
+            "Активация Ловушек"
+          ],
+          "PossibleLoot": "Мистический Артефакт Тьмы",
+          "PerformedActions": [
+            "Теневой Хранитель обрушивает магический щит, но Осирис продолжает наносить удары, проникая через защиту",
+            "Теневой Хранитель вызывает Чарующую Тьму, окутывая Осириса теневыми завитками"
+          ]
+        }
+      ],
+      "PlayerActions": [
+        "Осирис активирует Хрономантический Переход",
+        "Осирис готовит Звездный Резонанс",
+        "Осирис применяет Звездный Резонанс для создания магического барьера, защищающего от магических атак Теневого Хранителя",
+        "Осирис использует Цветущее Прозрение, обнаруживая уязвимости в магическом облике Теневого Хранителя и атакуя его слабые места"
+      ],
+      "MainEvents": [
+        "Осирис готовится к Звездному Взрыву",
+        "Теневой Хранитель прерывает атаку магическим щитом",
+        "Хранитель вызывает тьму, окутывающую Осириса",
+        "Начало сражения с Теневым Хранителем",
+        "Осирис использует Хрономантический Переход, избегая ловушек",
+        "Теневой Хранитель отменяет Магический Щит под давлением атаки Осириса",
+        "Осирис готовит Звездный Резонанс",
+        "Осирис выпускает Звездный Резонанс, пробиваясь сквозь защиту Теневого Хранителя"
+      ]
+    }
+  }
+{
+  "CurrentCharacterState":{
+    "MainPreviousEvents":[
+      "Осирис прибыл в Эльсарию и приветствован в Школе Звездного Магии.",
+      "Директор Ксандра раскрывает призвание Осириса и предупреждает о темном пробуждении.",
+      "Задача - отправиться в Леса Вечного Сумрака и раскрыть тайны древней силы.",
+      "Ксандра передает Книгу Забытых Заклинаний и поддерживает Осириса в его миссии.",
+      "Осирис приобщается к звездной магии, раскрывая тайны влияния её на драконью природу.",
+      "Осирис, поглубже исследуя Звездный Резонанс, слил звездную энергию с драконьей магией, раскрывая новые возможности в битве.",
+      "Осирис освоил Звездный Резонанс, погружаясь в космическую симфонию и обретая магическую ясность.",
+      "Осирис, стоя в Астральных Просторах, вызвал мощный Звездный Взрыв, поглощая звездную энергию.",
+      "Энергия звезд преобразовала его взгляд и наполнила его новой уверенностью.",
+      "Осирис осознал свою способность контролировать звездную магию во всей её величии.",
+      "Его драконья сущность слилась с невероятной энергией звезд, открыв новые возможности в борьбе против темных сил Эльдории."
+    ],
+    "CurrentPlayerLocation": "Сияющая Астральная Платформа",
+    "PossibleActions": [
+      "Использовать Звездный Луч для точечной атаки на Теневого Хранителя, обращая внимание на слабые места",
+      "Активировать Звездный Кокон для временного увеличения защиты от магических атак",
+      "Применить Звездный Танец для создания иллюзий, путающих врага и затрудняющих его атаки"
+    ]          
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "CurrentCharacterState":{
+    "MainPreviousEvents":[
+      "Осирис прибыл в Эльсарию и приветствован в Школе Звездного Магии.",
+      "Директор Ксандра раскрывает призвание Осириса и предупреждает о темном пробуждении.",
+      "Задача - отправиться в Леса Вечного Сумрака и раскрыть тайны древней силы.",
+      "Ксандра передает Книгу Забытых Заклинаний и поддерживает Осириса в его миссии.",
+      "Осирис приобщается к звездной магии, раскрывая тайны влияния её на драконью природу.",
+      "Осирис, поглубже исследуя Звездный Резонанс, слил звездную энергию с драконьей магией, раскрывая новые возможности в битве.",
+      "Осирис освоил Звездный Резонанс, погружаясь в космическую симфонию и обретая магическую ясность.",
+      "Осирис, стоя в Астральных Просторах, вызвал мощный Звездный Взрыв, поглощая звездную энергию.",
+      "Энергия звезд преобразовала его взгляд и наполнила его новой уверенностью.",
+      "Осирис осознал свою способность контролировать звездную магию во всей её величии.",
+      "Его драконья сущность слилась с невероятной энергией звезд, открыв новые возможности в борьбе против темных сил Эльдории."
+    ],
+    "CurrentPlayerLocation": "Сияющая Астральная Платформа",
+    "PossibleActions": [
+      "Использовать Звездный Луч для точечной атаки на Теневого Хранителя, обращая внимание на слабые места",
+      "Активировать Звездный Кокон для временного увеличения защиты от магических атак",
+      "Применить Звездный Танец для создания иллюзий, путающих врага и затрудняющих его атаки"
+    ]          
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "BattleLog": {
+    "Enemies": [
+      {
+        "Name": "Теневой Хранитель",
+        "State": "Живой",
+        "Skills": [
+          "Магический Щит",
+          "Чарующая Тьма",
+          "Вызов Теневых Слуг",
+          "Активация Ловушек"
+        ],
+        "PossibleLoot": "Мистический Артефакт Тьмы",
+        "PerformedActions": [
+          "Теневой Хранитель обрушивает магический щит, но Осирис продолжает наносить удары, проникая через защиту",
+          "Теневой Хранитель вызывает Чарующую Тьму, окутывая Осириса теневыми завитками"
+        ]
+      }
+    ],
+    "PlayerActions": [
+      "Осирис активирует Хрономантический Переход",
+      "Осирис готовит Звездный Резонанс",
+      "Осирис применяет Звездный Резонанс для создания магического барьера, защищающего от магических атак Теневого Хранителя",
+      "Осирис использует Цветущее Прозрение, обнаруживая уязвимости в магическом облике Теневого Хранителя и атакуя его слабые места"
+    ],
+    "MainEvents": [
+      "Осирис готовится к Звездному Взрыву",
+      "Теневой Хранитель прерывает атаку магическим щитом",
+      "Хранитель вызывает тьму, окутывающую Осириса",
+      "Начало сражения с Теневым Хранителем",
+      "Осирис использует Хрономантический Переход, избегая ловушек",
+      "Теневой Хранитель отменяет Магический Щит под давлением атаки Осириса",
+      "Осирис готовит Звездный Резонанс",
+      "Осирис выпускает Звездный Резонанс, пробиваясь сквозь защиту Теневого Хранителя"
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>PossiblePlayerActions</t>
+  </si>
+  <si>
+    <t>Добить Теневого Хранителя одним ударом, используя Падение древней звезды.</t>
+  </si>
+  <si>
+    <t>IsBattleActionPossible</t>
+  </si>
+  <si>
+    <t>{
+  "CanPerformAction": 1,
+  "Reasoning": "Действие возможно.",
+  "UsedExistingSkills": [
+    "Звездный Взрыв",
+    "Хрономантический Переход",
+    "Звездный Резонанс"
+  ]
+}</t>
+  </si>
+  <si>
+    <t>BattlePlayerAction</t>
+  </si>
+  <si>
+    <t>Осирис, стоя на Сияющей Астральной Платформе, решительно собирает звездную энергию в своих ладонях, призывая космическую мощь. Внезапно активируется Хрономантический Переход, мантия времени смешивается с эфиром, позволяя ему избежать ловушек Теневого Хранителя, который, под давлением атаки, отменяет свой Магический Щит.
+Спокойно стоя перед врагом, Осирис воссоздает вихрь световой энергии на платформе, объединяя Звездный Взрыв, Хрономантический Переход и Звездный Резонанс в могущественный момент. Падение древней звезды освещает небеса, и Осирис направляет эту невероятную силу прямо на Теневого Хранителя.
+Магический вихрь разрывает тьму, защищавшую врага, и Теневой Хранитель буквально погружается в световой взрыв. Шокированный момент замирает в астральной симфонии, а платформа под ногами Осириса засияла ярким светом. Теневой Хранитель, ослабленный этой мощной атакой, открывает свои слабые места, и в этот момент Цветущее Прозрение Осириса обнаруживает их.
+Осирис, воспользовавшись божественным прозрением, направляет Звездный Взрыв точечно в уязвимости врага, завершая бой одним великолепным ударом. Теневой Хранитель, погруженный в тьму своего поражения, исчезает, оставляя лишь мистический артефакт тьмы в свете освеженной Астральной Платформы.</t>
+  </si>
+  <si>
+    <t>CompressBattleAction</t>
+  </si>
+  <si>
+    <t>{
+  "BattleLog": {
+    "Enemies": [
+      {
+        "Name": "Теневой Хранитель",
+        "State": "Мертв",
+        "Skills": [],
+        "PossibleLoot": "Мистический Артефакт Тьмы",
+        "PerformedActions": [
+          "Теневой Хранитель обрушивает магический щит, но Осирис продолжает наносить удары, проникая через защиту",
+          "Теневой Хранитель вызывает Чарующую Тьму, окутывая Осириса теневыми завитками"
+        ],
+        "BattleState": "Finished"
+      }
+    ],
+    "PlayerActions": [
+      "Осирис активирует Хрономантический Переход",
+      "Осирис готовит Звездный Резонанс",
+      "Осирис применяет Звездный Резонанс для создания магического барьера, защищающего от магических атак Теневого Хранителя",
+      "Осирис использует Цветущее Прозрение, обнаруживая уязвимости в магическом облике Теневого Хранителя и атакуя его слабые места"
+    ],
+    "MainEvents": [
+      "Осирис готовится к Звездному Взрыву",
+      "Теневой Хранитель прерывает атаку магическим щитом",
+      "Хранитель вызывает тьму, окутывающую Осириса",
+      "Начало сражения с Теневым Хранителем",
+      "Осирис использует Хрономантический Переход, избегая ловушек",
+      "Теневой Хранитель отменяет Магический Щит под давлением атаки Осириса",
+      "Осирис готовит Звездный Резонанс",
+      "Осирис выпускает Звездный Резонанс, пробиваясь сквозь защиту Теневого Хранителя",
+      "Теневой Хранитель мертв, погруженный в тьму поражения",
+      "Осирис направляет Звездный Взрыв точечно в уязвимости врага",
+      "Теневой Хранитель погибает под воздействием мощного удара"
+    ]
+  }
+}
+{
+  "CurrentCharacterState": {
+    "MainPreviousEvents": [...], // Без изменений
+    "CurrentPlayerLocation": "Сияющая Астральная Платформа",
+    "PossibleActions": [
+      "Использовать Звездный Луч для точечной атаки на Теневого Хранителя, обращая внимание на слабые места",
+      "Активировать Звездный Кокон для временного увеличения защиты от магических атак",
+      "Применить Звездный Танец для создания иллюзий, путающих врага и затрудняющих его атаки",
+      "Использовать Звездный Взрыв для разрушения группы врагов световым вихрем",
+      "Активировать Звездный Щит для создания магического барьера, защищающего от физических атак",
+      "Произнести Звездное Призывание для призыва союзников из иных астральных сфер"
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "BattleLog": {
+    "Enemies": [
+      {
+        "Name": "Теневой Хранитель",
+        "State": "Мертв",
+        "Skills": [],
+        "PossibleLoot": "Мистический Артефакт Тьмы",
+        "PerformedActions": [
+          "Теневой Хранитель обрушивает магический щит, но Осирис продолжает наносить удары, проникая через защиту",
+          "Теневой Хранитель вызывает Чарующую Тьму, окутывая Осириса теневыми завитками"
+        ],
+        "BattleState": "Finished"
+      }
+    ],
+    "PlayerActions": [
+      "Осирис активирует Хрономантический Переход",
+      "Осирис готовит Звездный Резонанс",
+      "Осирис применяет Звездный Резонанс для создания магического барьера, защищающего от магических атак Теневого Хранителя",
+      "Осирис использует Цветущее Прозрение, обнаруживая уязвимости в магическом облике Теневого Хранителя и атакуя его слабые места"
+    ],
+    "MainEvents": [
+      "Осирис готовится к Звездному Взрыву",
+      "Теневой Хранитель прерывает атаку магическим щитом",
+      "Хранитель вызывает тьму, окутывающую Осириса",
+      "Начало сражения с Теневым Хранителем",
+      "Осирис использует Хрономантический Переход, избегая ловушек",
+      "Теневой Хранитель отменяет Магический Щит под давлением атаки Осириса",
+      "Осирис готовит Звездный Резонанс",
+      "Осирис выпускает Звездный Резонанс, пробиваясь сквозь защиту Теневого Хранителя",
+      "Теневой Хранитель мертв, погруженный в тьму поражения",
+      "Осирис направляет Звездный Взрыв точечно в уязвимости врага",
+      "Теневой Хранитель погибает под воздействием мощного удара"
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>DescribeLoot</t>
+  </si>
+  <si>
+    <t>Осирис, молодой драконид и звездный маг, победил Теневого Хранителя в сражении на просторах Эльдории, обрушив его могущественные атаки и окончательно поглотив тьму, которую вызывал Хранитель. В награду за победу, Осирис обнаружил Мистический Артефакт Тьмы. Этот загадочный предмет, полученный в результате схватки, придает ему новые навыки и возможности. Артефакт Тьмы предоставляет Осирису силу магии тьмы, позволяя ему манипулировать и контролировать теневые энергии. Теперь, с этим мистическим артефактом, Осирис может владеть Чарующей Тьмой, создавать защитные барьеры и усиливать свои атаки с использованием магии тьмы.</t>
+  </si>
+  <si>
+    <t>CompressLoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "CharacterSkills": [
+      {
+        "Name": "Звездный Взрыв",
+        "ShortDescription": "Магическая атака, использующая энергию звезд. Наносит урон врагам в радиусе.",
+        "BeautifulDescription": "Осирис взывает к силам звезд, вызывая великолепный взрыв, который охватывает окружающих врагов. Их тела окутываются сверкающими огнями космоса, а магия звезд разлетается во все стороны, нанося урон их сущностям."
+      },
+      {
+        "Name": "Драконий Щит",
+        "ShortDescription": "Активация драконьей чешуи для временного усиления защиты.",
+        "BeautifulDescription": "Осирис обращается к своей драконьей природе, усиливая свою защиту магией чешуи. Вокруг него возникает мерцание драконьей энергии, предостерегая врагов от того, чтобы атаковать его."
+      },
+      {
+        "Name": "Теньскок",
+        "ShortDescription": "Теневое перемещение в Лесах Вечного Сумрака.",
+        "BeautifulDescription": "С использованием Амулета Вечного Сумрака, Осирис способен сливаться с окружающей тьмой, перемещаясь бесшумно и невидимо в Лесах Вечного Сумрака. Его форма растворяется в тенях, обеспечивая ему свободу передвижения и избегание вражеских взоров."
+      },
+      {
+        "Name": "Взгляд Забытых Богов",
+        "ShortDescription": "Использование заклинаний из Книги Забытых Заклинаний для мощных магических атак.",
+        "BeautifulDescription": "С открывшейся Книгой Забытых Заклинаний Осирис может воскрешать древние магии Теней Забытых Богов. Его взгляд наполняется мистической силой, и он способен вызывать разрушительные заклинания, оставляя за собой лишь следы исчезающих теней."
+      },
+      {
+        "Name": "Хрономантический Переход",
+        "ShortDescription": "Использование Мантии Времени для перемещения через Глубины Сквозь Время.",
+        "BeautifulDescription": "Осирис обвивает себя Мантией Времени, взаимодействуя с Глубинами Сквозь Время. В его вокруг начинают мерцать временные вихри, и он способен мгновенно перемещаться через временные порталы, избегая ловушек и вражеских угроз."
+      },
+      {
+        "Name": "Цветущее Прозрение",
+        "ShortDescription": "Использование Цветка Божественного Прозрения для получения божественных видений и просветления.",
+        "BeautifulDescription": "С использованием Цветка Божественного Прозрения, Осирис погружается в транс, где он получает божественные видения и прозрения. Лепестки цветка летят вокруг него, раскрывая перед ним тайны мира и открывая путь к глубокому просветлению."
+      },
+      {
+        "Name": "Звездный Резонанс",
+        "ShortDescription": "Слияние звездной энергии и драконьей магии, открывающее новые возможности в битве и путешествиях.",
+        "BeautifulDescription": "Поглубжение в космическую симфонию, позволяющее Осирису взаимодействовать с звездной энергией, усиливая свою драконью магию."
+      },
+      {
+        "Name": "Чарующий Звездный Взрыв",
+        "ShortDescription": "Магическая атака, создающая вихрь световой энергии на платформе."
+      },
+      {
+        "Name": "Чарующая Тьма",
+        "ShortDescription": "Владение магией тьмы",
+        "BeautifulDescription": "Осирис теперь обладает уникальным навыком - Чарующая Тьма. Он может манипулировать и контролировать теневые энергии, создавать защитные барьеры и усиливать свои атаки с использованием магии тьмы."
+      }
+    ]
+  }
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "CharacterItems": [
+      {
+        "Item": "Звездный посох",
+        "Description": "Могущественный посох, изготовленный из древнего дерева, украшенный сверкающими звездами. Пригоден для использования магических заклинаний."
+      },
+      {
+        "Item": "Драконья чешуя",
+        "Description": "Броня, изготовленная из прочной драконьей чешуи, обеспечивает отличную защиту от физических атак и магии."
+      },
+      {
+        "Item": "Амулет Вечного Сумрака",
+        "Description": "Амулет, позволяющий игроку перемещаться бесзвучно по Лесам Вечного Сумрака и обходить врагов."
+      },
+      {
+        "Item": "Книга Забытых Заклинаний",
+        "Description": "Таинственная книга, содержащая древние заклинания Теней Забытых Богов. Дает возможность использовать мощные магические атаки."
+      },
+      {
+        "Item": "Мантия Времени",
+        "Description": "Мантия, позволяющая игроку перемещаться через Глубины Сквозь Время и избегать временных ловушек."
+      },
+      {
+        "Item": "Цветок Божественного Прозрения",
+        "Description": "Очарованный цветок, который может использоваться для получения божественных видений и просветления. Полезен в путешествии по Долине Взрывающихся Цветов."
+      },
+      {
+          "Item": "Следы Звезд",
+          "Description": "Мерцающая чешуя, вплетенная в драконий облик Осириса, свидетельствующая о его соединении с звездной энергией."
+      },
+      {
+        "Item": "Мистический Артефакт Тьмы",
+        "Description": "Загадочный предмет, обнаруженный Осирисом после победы над Теневым Хранителем. Предоставляет силу магии тьмы."
+    }
+    ]
+  }
+  </t>
+  </si>
+  <si>
+    <t>{
+    "ReceivedItems":[
+        {
+            "Item": "Мистический Артефакт Тьмы",
+            "Description": "Загадочный предмет, обнаруженный Осирисом после победы над Теневым Хранителем. Предоставляет силу магии тьмы."
+        }
+    ],
+    "Skills":[
+        {
+            "Name": "Чарующая Тьма",
+            "ShortDescription": "Владение магией тьмы",
+            "BeautifulDescription": "Осирис теперь обладает уникальным навыком - Чарующая Тьма. Он может манипулировать и контролировать теневые энергии, создавать защитные барьеры и усиливать свои атаки с использованием магии тьмы."
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>FinishCampaign</t>
+  </si>
+  <si>
+    <t>Сияющая Астральная Платформа озарена ярким светом, когда Осирис, драконид и звездный маг, победил Теневого Хранителя, финального босса, стоявшего на пути к спасению Эльдории. Вокруг разливается блеск звезд, отражая в глазах Осириса победу и восстановление баланса в этом мире чудес и магии.
+Осирис воспользовался своими уникальными навыками, вызвав Звездный Взрыв, чей сверкающий огонь окутал Теневого Хранителя, поглощая тьму его сущности. Силы звезд и драконьей магии взаимодействовали в совершенном симбиозе, создавая потрясающий эффект, который не только разрушил врага, но и осветил темные уголки Эльдории.
+В этот момент Осирис ощутил, как энергия звезд и драконья магия становятся неотъемлемой частью его сущности. Чарующее Прозрение раскрывает перед ним тайны мира, а Звездный Резонанс обогащает его душу новыми возможностями. Он стал не только героем, спасшим Эльдорию, но и символом единения разных аспектов этого удивительного мира.
+После победы, Ксандра, директор Школы Звездного Магии, выходит к Осирису, глядя на него с гордостью и уважением. Она благодарит его за предотвращение темного пробуждения и восстановление равновесия. Вместе они решают, что Осирис больше не нужно поддерживать барьеры между драконьей магией и силами звезд. Эти силы теперь живут в нем как единое целое.
+С эпическим завершением своего квеста, Осирис решает остаться в Эльдории и посвятить свою жизнь обучению новых поколений магов. Он становится наставником в Школе Звездного Магии, где передает свои знания и опыт молодым талантливым студентам.
+Эльдория процветает под влиянием объединенной магии Осириса. Города на облаках, Школа Звездного Магии, Леса Вечного Сумрака, Долина Взрывающихся Цветов, Глубины Сквозь Время и Тени Забытых Богов существуют в гармонии. Темные силы, которые угрожали этому миру, теперь отступают перед силой света и магии.
+Осирис становится легендой, чье имя прошептывают ветры магии и звезды в бескрайних небесах Эльдории. Его история останется в сердцах жителей, напоминая о том, как сила внутри каждого из нас может преобразить мир.</t>
   </si>
 </sst>
 </file>
@@ -1711,22 +2208,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9746B0B3-BD14-45AF-A248-190EC1FFD653}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:J26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="57" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="4" max="7" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.42578125" customWidth="1"/>
-    <col min="11" max="11" width="51.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="4" max="7" width="30.7265625" customWidth="1"/>
+    <col min="10" max="10" width="46.453125" customWidth="1"/>
+    <col min="11" max="11" width="51.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1764,7 +2261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1787,7 +2284,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1805,9 +2302,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="405" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="377" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A29" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1829,7 +2326,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1844,7 +2341,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1865,7 +2362,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1889,7 +2386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1910,7 +2407,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1934,7 +2431,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1961,7 +2458,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2002,7 +2499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2038,7 +2535,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2065,7 +2562,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2092,7 +2589,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2129,7 +2626,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2156,7 +2653,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2192,7 +2689,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2223,7 +2720,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2257,7 +2754,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2288,7 +2785,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2327,7 +2824,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2357,7 +2854,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2384,7 +2881,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2411,7 +2908,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2456,7 +2953,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2479,24 +2976,326 @@
       <c r="J26" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="B29" t="str">
+        <f>F27</f>
+        <v>Теневой Хранитель, оставаясь живым, вновь обрушивает магический щит вокруг себя, но Осирис, несмотря на сопротивление темных сил, продолжает наносить удары. Сила Звездного Резонанса, вызванного драконьей сущностью Осириса, проникает сквозь защиту Хранителя, создавая магический барьер, который дрожит под воздействием звездной энергии. В ответ на вызов Чарующей Тьмы Теневой Хранитель погружает Осириса в мрак, окутывая его теневыми завитками. Однако, благодаря острому Цветущему Прозрению, драконид обнаруживает слабые места в облике врага и метко направляет свои атаки.
+Хранитель, взывая к древней магии, призывает Теневых Слуг, которые эффектно появляются из тьмы, готовые служить своему мастеру. Одновременно он активирует Ловушки, стреляющие из темных уголков, но Осирис, используя Хрономантический Переход, избегает хитроумных ловушек, маневрируя по битвенному полю. Под ритмичные взрывы Звездного Резонанса, темные силы пытаются устоять перед вихрем звездной энергии, но драконид, освоивший космическую симфонию, продолжает раскрывать новые возможности в борьбе против Теневого Хранителя.</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G68" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2512,12 +3311,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="255.5703125" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -2525,7 +3324,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -2533,7 +3332,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -2541,7 +3340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
